--- a/lab02/IR data.xlsx
+++ b/lab02/IR data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\GitHub\ECE-3400-Fall-2018\lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718CAC42-C7CE-425E-B530-9A12870F6342}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E653F6-3531-465B-9496-A22F1181C90E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7020" xr2:uid="{A8C074D0-8333-4605-9B30-AC2021D46835}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>off</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Decoy</t>
-  </si>
-  <si>
-    <t>12kHz</t>
   </si>
   <si>
     <t>OP AMP</t>
@@ -6673,17 +6670,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEB9540-232E-4C18-8920-8D197A7351D4}">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6698,31 +6695,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6738,11 +6735,40 @@
       <c r="E2">
         <v>202</v>
       </c>
-      <c r="K2" t="s">
-        <v>5</v>
+      <c r="G2">
+        <v>223</v>
+      </c>
+      <c r="H2">
+        <v>223</v>
+      </c>
+      <c r="I2">
+        <v>223</v>
+      </c>
+      <c r="J2">
+        <v>222</v>
+      </c>
+      <c r="L2">
+        <v>224</v>
+      </c>
+      <c r="M2">
+        <v>223</v>
+      </c>
+      <c r="N2">
+        <f>SUM(L2,M2)/2</f>
+        <v>223.5</v>
+      </c>
+      <c r="P2">
+        <v>220</v>
+      </c>
+      <c r="Q2">
+        <v>220</v>
+      </c>
+      <c r="R2">
+        <f>SUM(P2,Q2)/2</f>
+        <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -6760,33 +6786,41 @@
         <v>186</v>
       </c>
       <c r="G3">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H3">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="I3">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J3">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="L3">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="M3">
-        <v>223</v>
+        <v>207</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">SUM(L3,M3)/2</f>
+        <v>207.5</v>
       </c>
       <c r="P3">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="Q3">
-        <v>220</v>
+        <v>204</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1">SUM(P3,Q3)/2</f>
+        <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="2">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -6802,33 +6836,41 @@
         <v>35</v>
       </c>
       <c r="G4">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="H4">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="I4">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="J4">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="L4">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="M4">
-        <v>207</v>
+        <v>76</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="P4">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="Q4">
-        <v>204</v>
+        <v>67</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -6844,2385 +6886,2841 @@
         <v>37</v>
       </c>
       <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>52</v>
+      </c>
+      <c r="L5">
+        <v>56</v>
+      </c>
+      <c r="M5">
+        <v>46</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="P5">
+        <v>46</v>
+      </c>
+      <c r="Q5">
+        <v>37</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>44</v>
+      </c>
+      <c r="L6">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>49</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+      <c r="P6">
+        <v>33</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>43</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="P7">
+        <v>33</v>
+      </c>
+      <c r="Q7">
+        <v>32</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="P8">
+        <v>39</v>
+      </c>
+      <c r="Q8">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P9">
+        <v>32</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
+      </c>
+      <c r="P10">
+        <v>27</v>
+      </c>
+      <c r="Q10">
+        <v>19</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P11">
+        <v>27</v>
+      </c>
+      <c r="Q11">
+        <v>35</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="P12">
+        <v>16</v>
+      </c>
+      <c r="Q12">
+        <v>35</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>37</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>33.5</v>
+      </c>
+      <c r="P13">
+        <v>35</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>27</v>
+      </c>
+      <c r="J14">
+        <v>81</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>35</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="P14">
+        <v>27</v>
+      </c>
+      <c r="Q14">
+        <v>38</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>92</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>37</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>33.5</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <v>30</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>72</v>
+      </c>
+      <c r="G16">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <v>111</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P16">
+        <v>33</v>
+      </c>
+      <c r="Q16">
+        <v>27</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>37</v>
+      </c>
+      <c r="J17">
+        <v>96</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>24</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="P17">
+        <v>37</v>
+      </c>
+      <c r="Q17">
+        <v>24</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="P18">
+        <v>19</v>
+      </c>
+      <c r="Q18">
+        <v>27</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>33</v>
+      </c>
+      <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P19">
+        <v>27</v>
+      </c>
+      <c r="Q19">
+        <v>33</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>33</v>
+      </c>
+      <c r="I20">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>27</v>
+      </c>
+      <c r="L20">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="P20">
+        <v>30</v>
+      </c>
+      <c r="Q20">
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="P21">
+        <v>30</v>
+      </c>
+      <c r="Q21">
+        <v>24</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <v>24</v>
+      </c>
+      <c r="J22">
+        <v>24</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>38</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="P22">
+        <v>19</v>
+      </c>
+      <c r="Q22">
+        <v>30</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>27</v>
+      </c>
+      <c r="M23">
+        <v>27</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="P23">
+        <v>32</v>
+      </c>
+      <c r="Q23">
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>33</v>
+      </c>
+      <c r="I24">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>27</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="P24">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>32</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>27</v>
+      </c>
+      <c r="J25">
+        <v>37</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>43</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="P25">
+        <v>30</v>
+      </c>
+      <c r="Q25">
+        <v>32</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>27</v>
+      </c>
+      <c r="J26">
+        <v>39</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>70</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="P26">
+        <v>68</v>
+      </c>
+      <c r="Q26">
+        <v>72</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>79</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="P27">
+        <v>92</v>
+      </c>
+      <c r="Q27">
+        <v>92</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>106</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>83</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="P28">
+        <v>86</v>
+      </c>
+      <c r="Q28">
+        <v>78</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>33</v>
+      </c>
+      <c r="I29">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>99</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>24</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="P29">
+        <v>53</v>
+      </c>
+      <c r="Q29">
+        <v>55</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>25</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>85</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="P30">
+        <v>39</v>
+      </c>
+      <c r="Q30">
+        <v>19</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>19</v>
+      </c>
+      <c r="J31">
         <v>67</v>
       </c>
-      <c r="H5">
-        <v>68</v>
-      </c>
-      <c r="I5">
-        <v>68</v>
-      </c>
-      <c r="J5">
-        <v>63</v>
-      </c>
-      <c r="L5">
-        <v>74</v>
-      </c>
-      <c r="M5">
-        <v>76</v>
-      </c>
-      <c r="P5">
-        <v>58</v>
-      </c>
-      <c r="Q5">
-        <v>67</v>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="P31">
+        <v>8</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>33</v>
+      </c>
+      <c r="G32">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="I32">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="P32">
+        <v>24</v>
+      </c>
+      <c r="Q32">
+        <v>35</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>27</v>
+      </c>
+      <c r="J33">
+        <v>37</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P33">
+        <v>19</v>
+      </c>
+      <c r="Q33">
+        <v>19</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>19</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>19</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>8</v>
+      </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P35">
+        <v>27</v>
+      </c>
+      <c r="Q35">
+        <v>19</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="P36">
+        <v>19</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>24</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>19</v>
+      </c>
+      <c r="J37">
+        <v>30</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="P37">
+        <v>27</v>
+      </c>
+      <c r="Q37">
+        <v>19</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>37</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="P38">
+        <v>24</v>
+      </c>
+      <c r="Q38">
+        <v>33</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>51</v>
+      </c>
+      <c r="G39">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>24</v>
+      </c>
+      <c r="J39">
+        <v>33</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>43</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="P39">
+        <v>19</v>
+      </c>
+      <c r="Q39">
+        <v>19</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>74</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>19</v>
+      </c>
+      <c r="J40">
+        <v>57</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P40">
+        <v>27</v>
+      </c>
+      <c r="Q40">
+        <v>19</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>110</v>
+      </c>
+      <c r="E41">
+        <v>124</v>
+      </c>
+      <c r="G41">
+        <v>24</v>
+      </c>
+      <c r="H41">
+        <v>27</v>
+      </c>
+      <c r="I41">
+        <v>32</v>
+      </c>
+      <c r="J41">
+        <v>107</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>46</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <v>19</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>140</v>
+      </c>
+      <c r="E42">
+        <v>156</v>
+      </c>
+      <c r="G42">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>48</v>
+      </c>
+      <c r="J42">
+        <v>134</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>16</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>137</v>
+      </c>
+      <c r="E43">
+        <v>153</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>39</v>
+      </c>
+      <c r="J43">
+        <v>129</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <v>24</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="P43">
+        <v>19</v>
+      </c>
+      <c r="Q43">
+        <v>19</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>93</v>
+      </c>
+      <c r="E44">
+        <v>110</v>
+      </c>
+      <c r="G44">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>19</v>
+      </c>
+      <c r="J44">
+        <v>75</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P44">
+        <v>30</v>
+      </c>
+      <c r="Q44">
+        <v>16</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>56</v>
+      </c>
+      <c r="E45">
+        <v>68</v>
+      </c>
+      <c r="G45">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>24</v>
+      </c>
+      <c r="J45">
+        <v>47</v>
+      </c>
+      <c r="L45">
+        <v>27</v>
+      </c>
+      <c r="M45">
+        <v>27</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="P45">
+        <v>16</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C6">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>51</v>
-      </c>
-      <c r="E6">
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>33</v>
+      </c>
+      <c r="E46">
+        <v>46</v>
+      </c>
+      <c r="G46">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>19</v>
+      </c>
+      <c r="J46">
+        <v>16</v>
+      </c>
+      <c r="L46">
+        <v>8</v>
+      </c>
+      <c r="M46">
         <v>27</v>
       </c>
-      <c r="G6">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="P46">
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <v>24</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="H6">
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>24</v>
+      </c>
+      <c r="H47">
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>24</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <v>27</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P47">
+        <v>24</v>
+      </c>
+      <c r="Q47">
+        <v>8</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="I6">
-        <v>41</v>
-      </c>
-      <c r="J6">
-        <v>52</v>
-      </c>
-      <c r="L6">
-        <v>56</v>
-      </c>
-      <c r="M6">
-        <v>46</v>
-      </c>
-      <c r="P6">
-        <v>46</v>
-      </c>
-      <c r="Q6">
-        <v>37</v>
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>30</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="P48">
+        <v>8</v>
+      </c>
+      <c r="Q48">
+        <v>8</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>27</v>
+      </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>27</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>41</v>
-      </c>
-      <c r="E7">
+        <v>13.5</v>
+      </c>
+      <c r="P49">
+        <v>8</v>
+      </c>
+      <c r="Q49">
+        <v>24</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+      <c r="G50">
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>19</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="P50">
+        <v>30</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <v>27</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>27</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>24</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>27</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="P51">
+        <v>30</v>
+      </c>
+      <c r="Q51">
+        <v>19</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>27</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52">
+        <v>27</v>
+      </c>
+      <c r="I52">
+        <v>30</v>
+      </c>
+      <c r="J52">
         <v>35</v>
       </c>
-      <c r="G7">
-        <v>39</v>
-      </c>
-      <c r="H7">
-        <v>35</v>
-      </c>
-      <c r="I7">
-        <v>39</v>
-      </c>
-      <c r="J7">
-        <v>44</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>49</v>
-      </c>
-      <c r="P7">
-        <v>33</v>
-      </c>
-      <c r="Q7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
+      <c r="L52">
         <v>24</v>
       </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>32</v>
-      </c>
-      <c r="I8">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>35</v>
-      </c>
-      <c r="L8">
-        <v>43</v>
-      </c>
-      <c r="M8">
-        <v>43</v>
-      </c>
-      <c r="P8">
-        <v>33</v>
-      </c>
-      <c r="Q8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>42</v>
-      </c>
-      <c r="G9">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-      <c r="I9">
-        <v>32</v>
-      </c>
-      <c r="J9">
+      <c r="M52">
         <v>16</v>
       </c>
-      <c r="L9">
-        <v>37</v>
-      </c>
-      <c r="M9">
-        <v>52</v>
-      </c>
-      <c r="P9">
-        <v>39</v>
-      </c>
-      <c r="Q9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>25</v>
-      </c>
-      <c r="H10">
-        <v>25</v>
-      </c>
-      <c r="I10">
-        <v>35</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-      <c r="L10">
-        <v>37</v>
-      </c>
-      <c r="M10">
-        <v>27</v>
-      </c>
-      <c r="P10">
-        <v>32</v>
-      </c>
-      <c r="Q10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>43</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>25</v>
-      </c>
-      <c r="I11">
-        <v>25</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>47</v>
-      </c>
-      <c r="P11">
-        <v>27</v>
-      </c>
-      <c r="Q11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>35</v>
-      </c>
-      <c r="G12">
-        <v>43</v>
-      </c>
-      <c r="H12">
-        <v>35</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
-      </c>
-      <c r="J12">
-        <v>35</v>
-      </c>
-      <c r="L12">
-        <v>30</v>
-      </c>
-      <c r="M12">
-        <v>30</v>
-      </c>
-      <c r="P12">
-        <v>27</v>
-      </c>
-      <c r="Q12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>46</v>
-      </c>
-      <c r="E13">
-        <v>24</v>
-      </c>
-      <c r="G13">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>38</v>
-      </c>
-      <c r="I13">
-        <v>19</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <v>30</v>
-      </c>
-      <c r="M13">
-        <v>19</v>
-      </c>
-      <c r="P13">
-        <v>16</v>
-      </c>
-      <c r="Q13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>39</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>33</v>
-      </c>
-      <c r="J14">
-        <v>43</v>
-      </c>
-      <c r="L14">
-        <v>30</v>
-      </c>
-      <c r="M14">
-        <v>37</v>
-      </c>
-      <c r="P14">
-        <v>35</v>
-      </c>
-      <c r="Q14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>42</v>
-      </c>
-      <c r="E15">
-        <v>76</v>
-      </c>
-      <c r="G15">
-        <v>19</v>
-      </c>
-      <c r="H15">
-        <v>35</v>
-      </c>
-      <c r="I15">
-        <v>27</v>
-      </c>
-      <c r="J15">
-        <v>81</v>
-      </c>
-      <c r="L15">
-        <v>30</v>
-      </c>
-      <c r="M15">
-        <v>35</v>
-      </c>
-      <c r="P15">
-        <v>27</v>
-      </c>
-      <c r="Q15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>72</v>
-      </c>
-      <c r="G16">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>32</v>
-      </c>
-      <c r="I16">
-        <v>27</v>
-      </c>
-      <c r="J16">
-        <v>92</v>
-      </c>
-      <c r="L16">
-        <v>30</v>
-      </c>
-      <c r="M16">
-        <v>37</v>
-      </c>
-      <c r="P16">
-        <v>30</v>
-      </c>
-      <c r="Q16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>45</v>
-      </c>
-      <c r="G17">
-        <v>33</v>
-      </c>
-      <c r="H17">
-        <v>27</v>
-      </c>
-      <c r="I17">
-        <v>37</v>
-      </c>
-      <c r="J17">
-        <v>111</v>
-      </c>
-      <c r="L17">
-        <v>30</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-      <c r="P17">
-        <v>33</v>
-      </c>
-      <c r="Q17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>32</v>
-      </c>
-      <c r="H18">
-        <v>33</v>
-      </c>
-      <c r="I18">
-        <v>37</v>
-      </c>
-      <c r="J18">
-        <v>96</v>
-      </c>
-      <c r="L18">
-        <v>35</v>
-      </c>
-      <c r="M18">
-        <v>24</v>
-      </c>
-      <c r="P18">
-        <v>37</v>
-      </c>
-      <c r="Q18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>24</v>
-      </c>
-      <c r="G19">
-        <v>19</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>16</v>
-      </c>
-      <c r="L19">
-        <v>8</v>
-      </c>
-      <c r="M19">
-        <v>35</v>
-      </c>
-      <c r="P19">
-        <v>19</v>
-      </c>
-      <c r="Q19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>33</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-      <c r="G20">
-        <v>35</v>
-      </c>
-      <c r="H20">
-        <v>38</v>
-      </c>
-      <c r="I20">
-        <v>27</v>
-      </c>
-      <c r="J20">
-        <v>33</v>
-      </c>
-      <c r="L20">
-        <v>24</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>27</v>
-      </c>
-      <c r="Q20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>24</v>
-      </c>
-      <c r="G21">
-        <v>24</v>
-      </c>
-      <c r="H21">
-        <v>33</v>
-      </c>
-      <c r="I21">
-        <v>27</v>
-      </c>
-      <c r="J21">
-        <v>27</v>
-      </c>
-      <c r="L21">
-        <v>24</v>
-      </c>
-      <c r="M21">
-        <v>41</v>
-      </c>
-      <c r="P21">
-        <v>30</v>
-      </c>
-      <c r="Q21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="N52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="P52">
+        <v>43</v>
+      </c>
+      <c r="Q52">
+        <v>50</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>33</v>
+      </c>
+      <c r="H53">
+        <v>19</v>
+      </c>
+      <c r="I53">
         <v>24</v>
       </c>
-      <c r="C22">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <v>60</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="P53">
+        <v>55</v>
+      </c>
+      <c r="Q53">
+        <v>56</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>37</v>
+      </c>
+      <c r="H54">
+        <v>37</v>
+      </c>
+      <c r="I54">
+        <v>35</v>
+      </c>
+      <c r="J54">
+        <v>68</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+      <c r="M54">
+        <v>65</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="P54">
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <v>66</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <v>90</v>
+      </c>
+      <c r="G55">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>19</v>
+      </c>
+      <c r="I55">
+        <v>19</v>
+      </c>
+      <c r="J55">
+        <v>83</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>45</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="P55">
+        <v>50</v>
+      </c>
+      <c r="Q55">
+        <v>25</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
         <v>24</v>
       </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>65</v>
+      </c>
+      <c r="E56">
+        <v>107</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>19</v>
+      </c>
+      <c r="I56">
+        <v>24</v>
+      </c>
+      <c r="J56">
+        <v>113</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>19</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>57</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+      <c r="G57">
+        <v>19</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>109</v>
+      </c>
+      <c r="L57">
+        <v>19</v>
+      </c>
+      <c r="M57">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>27</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
+      </c>
+      <c r="I58">
+        <v>27</v>
+      </c>
+      <c r="J58">
+        <v>60</v>
+      </c>
+      <c r="L58">
+        <v>19</v>
+      </c>
+      <c r="M58">
+        <v>8</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="P58">
+        <v>8</v>
+      </c>
+      <c r="Q58">
+        <v>19</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
         <v>30</v>
       </c>
-      <c r="G22">
-        <v>25</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>30</v>
-      </c>
-      <c r="J22">
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="G59">
+        <v>19</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <v>32</v>
       </c>
-      <c r="L22">
-        <v>24</v>
-      </c>
-      <c r="M22">
-        <v>19</v>
-      </c>
-      <c r="P22">
-        <v>30</v>
-      </c>
-      <c r="Q22">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23">
+      <c r="L59">
+        <v>19</v>
+      </c>
+      <c r="M59">
         <v>27</v>
       </c>
-      <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>16</v>
-      </c>
-      <c r="G23">
-        <v>24</v>
-      </c>
-      <c r="H23">
-        <v>35</v>
-      </c>
-      <c r="I23">
-        <v>24</v>
-      </c>
-      <c r="J23">
-        <v>24</v>
-      </c>
-      <c r="L23">
-        <v>24</v>
-      </c>
-      <c r="M23">
-        <v>38</v>
-      </c>
-      <c r="P23">
-        <v>19</v>
-      </c>
-      <c r="Q23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>45</v>
-      </c>
-      <c r="E24">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>33</v>
-      </c>
-      <c r="H24">
-        <v>19</v>
-      </c>
-      <c r="I24">
-        <v>32</v>
-      </c>
-      <c r="J24">
-        <v>30</v>
-      </c>
-      <c r="L24">
-        <v>27</v>
-      </c>
-      <c r="M24">
-        <v>27</v>
-      </c>
-      <c r="P24">
-        <v>32</v>
-      </c>
-      <c r="Q24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="N59">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>30</v>
-      </c>
-      <c r="D25">
-        <v>33</v>
-      </c>
-      <c r="E25">
+      <c r="P59">
         <v>16</v>
       </c>
-      <c r="G25">
-        <v>19</v>
-      </c>
-      <c r="H25">
-        <v>33</v>
-      </c>
-      <c r="I25">
+      <c r="Q59">
+        <v>8</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>19</v>
+      </c>
+      <c r="I60">
+        <v>19</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="L60">
+        <v>19</v>
+      </c>
+      <c r="M60">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P60">
+        <v>8</v>
+      </c>
+      <c r="Q60">
         <v>24</v>
       </c>
-      <c r="J25">
-        <v>35</v>
-      </c>
-      <c r="L25">
-        <v>24</v>
-      </c>
-      <c r="M25">
-        <v>27</v>
-      </c>
-      <c r="P25">
-        <v>25</v>
-      </c>
-      <c r="Q25">
-        <v>32</v>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>19</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>32</v>
-      </c>
-      <c r="E26">
-        <v>33</v>
-      </c>
-      <c r="G26">
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <v>27</v>
-      </c>
-      <c r="J26">
-        <v>37</v>
-      </c>
-      <c r="L26">
-        <v>30</v>
-      </c>
-      <c r="M26">
-        <v>43</v>
-      </c>
-      <c r="P26">
-        <v>30</v>
-      </c>
-      <c r="Q26">
-        <v>32</v>
+        <v>9.5</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
-      </c>
-      <c r="C27">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="G27">
-        <v>19</v>
-      </c>
-      <c r="H27">
-        <v>24</v>
-      </c>
-      <c r="I27">
-        <v>27</v>
-      </c>
-      <c r="J27">
-        <v>39</v>
-      </c>
-      <c r="L27">
-        <v>24</v>
-      </c>
-      <c r="M27">
-        <v>70</v>
-      </c>
-      <c r="P27">
-        <v>68</v>
-      </c>
-      <c r="Q27">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>45</v>
-      </c>
-      <c r="E28">
-        <v>49</v>
-      </c>
-      <c r="G28">
-        <v>30</v>
-      </c>
-      <c r="H28">
-        <v>30</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>79</v>
-      </c>
-      <c r="L28">
-        <v>24</v>
-      </c>
-      <c r="M28">
-        <v>90</v>
-      </c>
-      <c r="P28">
-        <v>92</v>
-      </c>
-      <c r="Q28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <v>54</v>
-      </c>
-      <c r="E29">
-        <v>63</v>
-      </c>
-      <c r="G29">
-        <v>35</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>33</v>
-      </c>
-      <c r="J29">
-        <v>106</v>
-      </c>
-      <c r="L29">
-        <v>30</v>
-      </c>
-      <c r="M29">
-        <v>83</v>
-      </c>
-      <c r="P29">
-        <v>86</v>
-      </c>
-      <c r="Q29">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-      <c r="G30">
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <v>33</v>
-      </c>
-      <c r="I30">
-        <v>24</v>
-      </c>
-      <c r="J30">
-        <v>99</v>
-      </c>
-      <c r="L30">
-        <v>27</v>
-      </c>
-      <c r="M30">
-        <v>24</v>
-      </c>
-      <c r="P30">
-        <v>53</v>
-      </c>
-      <c r="Q30">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>24</v>
-      </c>
-      <c r="G31">
-        <v>24</v>
-      </c>
-      <c r="H31">
-        <v>25</v>
-      </c>
-      <c r="I31">
-        <v>30</v>
-      </c>
-      <c r="J31">
-        <v>85</v>
-      </c>
-      <c r="L31">
-        <v>27</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>39</v>
-      </c>
-      <c r="Q31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>27</v>
-      </c>
-      <c r="C32">
-        <v>27</v>
-      </c>
-      <c r="D32">
-        <v>19</v>
-      </c>
-      <c r="E32">
-        <v>33</v>
-      </c>
-      <c r="G32">
-        <v>30</v>
-      </c>
-      <c r="H32">
-        <v>19</v>
-      </c>
-      <c r="I32">
-        <v>19</v>
-      </c>
-      <c r="J32">
-        <v>67</v>
-      </c>
-      <c r="L32">
-        <v>30</v>
-      </c>
-      <c r="M32">
-        <v>27</v>
-      </c>
-      <c r="P32">
-        <v>8</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>30</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>16</v>
-      </c>
-      <c r="E33">
-        <v>16</v>
-      </c>
-      <c r="G33">
-        <v>27</v>
-      </c>
-      <c r="H33">
-        <v>24</v>
-      </c>
-      <c r="I33">
-        <v>24</v>
-      </c>
-      <c r="J33">
-        <v>8</v>
-      </c>
-      <c r="L33">
-        <v>27</v>
-      </c>
-      <c r="M33">
-        <v>25</v>
-      </c>
-      <c r="P33">
-        <v>24</v>
-      </c>
-      <c r="Q33">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>19</v>
-      </c>
-      <c r="G34">
-        <v>30</v>
-      </c>
-      <c r="H34">
-        <v>19</v>
-      </c>
-      <c r="I34">
-        <v>27</v>
-      </c>
-      <c r="J34">
-        <v>37</v>
-      </c>
-      <c r="L34">
-        <v>30</v>
-      </c>
-      <c r="M34">
-        <v>16</v>
-      </c>
-      <c r="P34">
-        <v>19</v>
-      </c>
-      <c r="Q34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>33</v>
-      </c>
-      <c r="E35">
-        <v>24</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>19</v>
-      </c>
-      <c r="J35">
-        <v>16</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>19</v>
-      </c>
-      <c r="C36">
-        <v>19</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>19</v>
-      </c>
-      <c r="G36">
-        <v>8</v>
-      </c>
-      <c r="H36">
-        <v>19</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="L36">
-        <v>8</v>
-      </c>
-      <c r="M36">
-        <v>30</v>
-      </c>
-      <c r="P36">
-        <v>27</v>
-      </c>
-      <c r="Q36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>19</v>
-      </c>
-      <c r="D37">
-        <v>27</v>
-      </c>
-      <c r="E37">
-        <v>35</v>
-      </c>
-      <c r="G37">
-        <v>19</v>
-      </c>
-      <c r="H37">
-        <v>16</v>
-      </c>
-      <c r="I37">
-        <v>8</v>
-      </c>
-      <c r="J37">
-        <v>19</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>19</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>27</v>
-      </c>
-      <c r="E38">
-        <v>25</v>
-      </c>
-      <c r="G38">
-        <v>24</v>
-      </c>
-      <c r="H38">
-        <v>16</v>
-      </c>
-      <c r="I38">
-        <v>19</v>
-      </c>
-      <c r="J38">
-        <v>30</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>30</v>
-      </c>
-      <c r="P38">
-        <v>27</v>
-      </c>
-      <c r="Q38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>38</v>
-      </c>
-      <c r="E39">
-        <v>51</v>
-      </c>
-      <c r="G39">
-        <v>24</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>37</v>
-      </c>
-      <c r="L39">
-        <v>8</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>24</v>
-      </c>
-      <c r="Q39">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>24</v>
-      </c>
-      <c r="C40">
-        <v>24</v>
-      </c>
-      <c r="D40">
-        <v>60</v>
-      </c>
-      <c r="E40">
-        <v>74</v>
-      </c>
-      <c r="G40">
-        <v>19</v>
-      </c>
-      <c r="H40">
-        <v>19</v>
-      </c>
-      <c r="I40">
-        <v>24</v>
-      </c>
-      <c r="J40">
-        <v>33</v>
-      </c>
-      <c r="L40">
-        <v>8</v>
-      </c>
-      <c r="M40">
-        <v>43</v>
-      </c>
-      <c r="P40">
-        <v>19</v>
-      </c>
-      <c r="Q40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>24</v>
-      </c>
-      <c r="C41">
-        <v>24</v>
-      </c>
-      <c r="D41">
-        <v>110</v>
-      </c>
-      <c r="E41">
-        <v>124</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>19</v>
-      </c>
-      <c r="I41">
-        <v>19</v>
-      </c>
-      <c r="J41">
-        <v>57</v>
-      </c>
-      <c r="L41">
-        <v>24</v>
-      </c>
-      <c r="M41">
-        <v>24</v>
-      </c>
-      <c r="P41">
-        <v>27</v>
-      </c>
-      <c r="Q41">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>140</v>
-      </c>
-      <c r="E42">
-        <v>156</v>
-      </c>
-      <c r="G42">
-        <v>24</v>
-      </c>
-      <c r="H42">
-        <v>27</v>
-      </c>
-      <c r="I42">
-        <v>32</v>
-      </c>
-      <c r="J42">
-        <v>107</v>
-      </c>
-      <c r="L42">
-        <v>24</v>
-      </c>
-      <c r="M42">
-        <v>46</v>
-      </c>
-      <c r="P42">
-        <v>8</v>
-      </c>
-      <c r="Q42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>19</v>
-      </c>
-      <c r="D43">
-        <v>137</v>
-      </c>
-      <c r="E43">
-        <v>153</v>
-      </c>
-      <c r="G43">
-        <v>19</v>
-      </c>
-      <c r="H43">
-        <v>19</v>
-      </c>
-      <c r="I43">
-        <v>48</v>
-      </c>
-      <c r="J43">
-        <v>134</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>19</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <v>19</v>
-      </c>
-      <c r="D44">
-        <v>93</v>
-      </c>
-      <c r="E44">
-        <v>110</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>39</v>
-      </c>
-      <c r="J44">
-        <v>129</v>
-      </c>
-      <c r="L44">
-        <v>19</v>
-      </c>
-      <c r="M44">
-        <v>24</v>
-      </c>
-      <c r="P44">
-        <v>19</v>
-      </c>
-      <c r="Q44">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>27</v>
-      </c>
-      <c r="C45">
-        <v>27</v>
-      </c>
-      <c r="D45">
-        <v>56</v>
-      </c>
-      <c r="E45">
-        <v>68</v>
-      </c>
-      <c r="G45">
-        <v>19</v>
-      </c>
-      <c r="H45">
-        <v>19</v>
-      </c>
-      <c r="I45">
-        <v>19</v>
-      </c>
-      <c r="J45">
-        <v>75</v>
-      </c>
-      <c r="L45">
-        <v>19</v>
-      </c>
-      <c r="M45">
-        <v>19</v>
-      </c>
-      <c r="P45">
-        <v>30</v>
-      </c>
-      <c r="Q45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>33</v>
-      </c>
-      <c r="E46">
-        <v>46</v>
-      </c>
-      <c r="G46">
-        <v>19</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>24</v>
-      </c>
-      <c r="J46">
-        <v>47</v>
-      </c>
-      <c r="L46">
-        <v>27</v>
-      </c>
-      <c r="M46">
-        <v>27</v>
-      </c>
-      <c r="P46">
-        <v>16</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>19</v>
-      </c>
-      <c r="C47">
-        <v>19</v>
-      </c>
-      <c r="D47">
-        <v>27</v>
-      </c>
-      <c r="E47">
-        <v>33</v>
-      </c>
-      <c r="G47">
-        <v>19</v>
-      </c>
-      <c r="H47">
-        <v>30</v>
-      </c>
-      <c r="I47">
-        <v>19</v>
-      </c>
-      <c r="J47">
-        <v>16</v>
-      </c>
-      <c r="L47">
-        <v>8</v>
-      </c>
-      <c r="M47">
-        <v>27</v>
-      </c>
-      <c r="P47">
-        <v>27</v>
-      </c>
-      <c r="Q47">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>19</v>
-      </c>
-      <c r="C48">
-        <v>19</v>
-      </c>
-      <c r="D48">
-        <v>30</v>
-      </c>
-      <c r="E48">
-        <v>32</v>
-      </c>
-      <c r="G48">
-        <v>24</v>
-      </c>
-      <c r="H48">
-        <v>24</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>24</v>
-      </c>
-      <c r="L48">
-        <v>19</v>
-      </c>
-      <c r="M48">
-        <v>27</v>
-      </c>
-      <c r="P48">
-        <v>24</v>
-      </c>
-      <c r="Q48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>27</v>
-      </c>
-      <c r="C49">
-        <v>27</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>8</v>
-      </c>
-      <c r="G49">
-        <v>19</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>30</v>
-      </c>
-      <c r="J49">
-        <v>25</v>
-      </c>
-      <c r="L49">
-        <v>19</v>
-      </c>
-      <c r="M49">
-        <v>24</v>
-      </c>
-      <c r="P49">
-        <v>8</v>
-      </c>
-      <c r="Q49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>19</v>
-      </c>
-      <c r="E50">
-        <v>24</v>
-      </c>
-      <c r="G50">
-        <v>16</v>
-      </c>
-      <c r="H50">
-        <v>27</v>
-      </c>
-      <c r="I50">
-        <v>16</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>27</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>8</v>
-      </c>
-      <c r="Q50">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>24</v>
-      </c>
-      <c r="D51">
-        <v>19</v>
-      </c>
-      <c r="E51">
-        <v>27</v>
-      </c>
-      <c r="G51">
-        <v>19</v>
-      </c>
-      <c r="H51">
-        <v>8</v>
-      </c>
-      <c r="I51">
-        <v>19</v>
-      </c>
-      <c r="J51">
-        <v>8</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>19</v>
-      </c>
-      <c r="P51">
-        <v>30</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>24</v>
-      </c>
-      <c r="C52">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>33</v>
-      </c>
-      <c r="E52">
-        <v>27</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>27</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>24</v>
-      </c>
-      <c r="L52">
-        <v>24</v>
-      </c>
-      <c r="M52">
-        <v>27</v>
-      </c>
-      <c r="P52">
-        <v>30</v>
-      </c>
-      <c r="Q52">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>19</v>
-      </c>
-      <c r="C53">
-        <v>19</v>
-      </c>
-      <c r="D53">
-        <v>27</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>30</v>
-      </c>
-      <c r="H53">
-        <v>27</v>
-      </c>
-      <c r="I53">
-        <v>30</v>
-      </c>
-      <c r="J53">
-        <v>35</v>
-      </c>
-      <c r="L53">
-        <v>24</v>
-      </c>
-      <c r="M53">
-        <v>16</v>
-      </c>
-      <c r="P53">
-        <v>43</v>
-      </c>
-      <c r="Q53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>8</v>
-      </c>
-      <c r="C54">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>19</v>
-      </c>
-      <c r="E54">
-        <v>30</v>
-      </c>
-      <c r="G54">
-        <v>33</v>
-      </c>
-      <c r="H54">
-        <v>19</v>
-      </c>
-      <c r="I54">
-        <v>24</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>19</v>
-      </c>
-      <c r="M54">
-        <v>60</v>
-      </c>
-      <c r="P54">
-        <v>55</v>
-      </c>
-      <c r="Q54">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>55</v>
-      </c>
-      <c r="E55">
-        <v>90</v>
-      </c>
-      <c r="G55">
-        <v>37</v>
-      </c>
-      <c r="H55">
-        <v>37</v>
-      </c>
-      <c r="I55">
-        <v>35</v>
-      </c>
-      <c r="J55">
-        <v>68</v>
-      </c>
-      <c r="L55">
-        <v>8</v>
-      </c>
-      <c r="M55">
-        <v>65</v>
-      </c>
-      <c r="P55">
-        <v>53</v>
-      </c>
-      <c r="Q55">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>24</v>
-      </c>
-      <c r="C56">
-        <v>24</v>
-      </c>
-      <c r="D56">
-        <v>65</v>
-      </c>
-      <c r="E56">
-        <v>107</v>
-      </c>
-      <c r="G56">
-        <v>19</v>
-      </c>
-      <c r="H56">
-        <v>19</v>
-      </c>
-      <c r="I56">
-        <v>19</v>
-      </c>
-      <c r="J56">
-        <v>83</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>45</v>
-      </c>
-      <c r="P56">
-        <v>50</v>
-      </c>
-      <c r="Q56">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>19</v>
-      </c>
-      <c r="C57">
-        <v>19</v>
-      </c>
-      <c r="D57">
-        <v>57</v>
-      </c>
-      <c r="E57">
-        <v>90</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>19</v>
-      </c>
-      <c r="I57">
-        <v>24</v>
-      </c>
-      <c r="J57">
-        <v>113</v>
-      </c>
-      <c r="L57">
-        <v>24</v>
-      </c>
-      <c r="M57">
-        <v>19</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>19</v>
-      </c>
-      <c r="C58">
-        <v>19</v>
-      </c>
-      <c r="D58">
-        <v>8</v>
-      </c>
-      <c r="E58">
-        <v>8</v>
-      </c>
-      <c r="G58">
-        <v>19</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>8</v>
-      </c>
-      <c r="J58">
-        <v>109</v>
-      </c>
-      <c r="L58">
-        <v>19</v>
-      </c>
-      <c r="M58">
-        <v>19</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>19</v>
-      </c>
-      <c r="C59">
-        <v>19</v>
-      </c>
-      <c r="D59">
-        <v>30</v>
-      </c>
-      <c r="E59">
-        <v>16</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>24</v>
-      </c>
-      <c r="I59">
-        <v>27</v>
-      </c>
-      <c r="J59">
-        <v>60</v>
-      </c>
-      <c r="L59">
-        <v>19</v>
-      </c>
-      <c r="M59">
-        <v>8</v>
-      </c>
-      <c r="P59">
-        <v>8</v>
-      </c>
-      <c r="Q59">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>19</v>
-      </c>
-      <c r="C60">
-        <v>19</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>8</v>
-      </c>
-      <c r="G60">
-        <v>19</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>32</v>
-      </c>
-      <c r="L60">
-        <v>19</v>
-      </c>
-      <c r="M60">
-        <v>27</v>
-      </c>
-      <c r="P60">
-        <v>16</v>
-      </c>
-      <c r="Q60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>19</v>
-      </c>
-      <c r="C61">
-        <v>19</v>
-      </c>
-      <c r="D61">
-        <v>19</v>
-      </c>
-      <c r="E61">
-        <v>8</v>
-      </c>
-      <c r="G61">
-        <v>16</v>
-      </c>
-      <c r="H61">
-        <v>19</v>
-      </c>
-      <c r="I61">
-        <v>19</v>
-      </c>
-      <c r="J61">
-        <v>8</v>
-      </c>
-      <c r="L61">
-        <v>19</v>
-      </c>
-      <c r="M61">
-        <v>19</v>
-      </c>
-      <c r="P61">
-        <v>8</v>
-      </c>
-      <c r="Q61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B62">
@@ -9238,33 +9736,41 @@
         <v>25</v>
       </c>
       <c r="G62">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B63">
@@ -9280,33 +9786,41 @@
         <v>8</v>
       </c>
       <c r="G63">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>24</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
       <c r="P63">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B64">
@@ -9322,33 +9836,41 @@
         <v>8</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I64">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J64">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L64">
         <v>19</v>
       </c>
       <c r="M64">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B65">
@@ -9364,33 +9886,41 @@
         <v>27</v>
       </c>
       <c r="G65">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I65">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="L65">
         <v>19</v>
       </c>
       <c r="M65">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>33.5</v>
       </c>
       <c r="P65">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B66">
@@ -9406,22 +9936,26 @@
         <v>8</v>
       </c>
       <c r="G66">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -9429,10 +9963,14 @@
       <c r="Q66">
         <v>0</v>
       </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B67">
@@ -9448,33 +9986,41 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H67">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="3">SUM(L67,M67)/2</f>
+        <v>4</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R129" si="4">SUM(P67,Q67)/2</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A130" si="1">A67+1</f>
+        <f t="shared" ref="A68:A130" si="5">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68">
@@ -9490,33 +10036,41 @@
         <v>52</v>
       </c>
       <c r="G68">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J68">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
+      <c r="N68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="B69">
@@ -9532,7 +10086,7 @@
         <v>60</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -9541,7 +10095,7 @@
         <v>16</v>
       </c>
       <c r="J69">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -9549,16 +10103,24 @@
       <c r="M69">
         <v>0</v>
       </c>
+      <c r="N69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B70">
@@ -9574,33 +10136,41 @@
         <v>41</v>
       </c>
       <c r="G70">
+        <v>19</v>
+      </c>
+      <c r="H70">
         <v>16</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
       <c r="I70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
+      <c r="N70">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
+      <c r="R70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B71">
@@ -9616,33 +10186,41 @@
         <v>27</v>
       </c>
       <c r="G71">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>85</v>
+      </c>
+      <c r="L71">
+        <v>8</v>
+      </c>
+      <c r="M71">
+        <v>30</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P71">
         <v>16</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>87</v>
-      </c>
-      <c r="L71">
-        <v>8</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
       <c r="Q71">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B72">
@@ -9664,27 +10242,35 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="L72">
         <v>8</v>
       </c>
       <c r="M72">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="P72">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q72">
         <v>8</v>
       </c>
+      <c r="R72">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B73">
@@ -9706,27 +10292,35 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J73">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L73">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="P73">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q73">
         <v>8</v>
       </c>
+      <c r="R73">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B74">
@@ -9748,69 +10342,85 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J74">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M74">
+        <v>8</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>19</v>
+      </c>
+      <c r="H75">
         <v>16</v>
       </c>
-      <c r="P74">
-        <v>19</v>
-      </c>
-      <c r="Q74">
-        <v>8</v>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>24</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>8</v>
-      </c>
-      <c r="E75">
-        <v>8</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>16</v>
-      </c>
-      <c r="J75">
-        <v>16</v>
-      </c>
-      <c r="L75">
-        <v>8</v>
-      </c>
-      <c r="M75">
-        <v>8</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B76">
@@ -9826,33 +10436,41 @@
         <v>16</v>
       </c>
       <c r="G76">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H76">
+        <v>19</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>30</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P76">
         <v>16</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>24</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
       <c r="Q76">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B77">
@@ -9868,33 +10486,41 @@
         <v>27</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H77">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="P77">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="Q77">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B78">
@@ -9910,33 +10536,41 @@
         <v>19</v>
       </c>
       <c r="G78">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I78">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M78">
-        <v>38</v>
+        <v>116</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="P78">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="Q78">
-        <v>47</v>
+        <v>122</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B79">
@@ -9952,33 +10586,41 @@
         <v>25</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H79">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>116</v>
+        <v>129</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="3"/>
+        <v>64.5</v>
       </c>
       <c r="P79">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q79">
-        <v>122</v>
+        <v>137</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="4"/>
+        <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="B80">
@@ -9994,33 +10636,41 @@
         <v>39</v>
       </c>
       <c r="G80">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H80">
         <v>8</v>
       </c>
       <c r="I80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="P80">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="Q80">
-        <v>137</v>
+        <v>120</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="4"/>
+        <v>119.5</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="B81">
@@ -10039,30 +10689,38 @@
         <v>8</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J81">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M81">
-        <v>110</v>
+        <v>42</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="3"/>
+        <v>30.5</v>
       </c>
       <c r="P81">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="Q81">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B82">
@@ -10078,33 +10736,41 @@
         <v>135</v>
       </c>
       <c r="G82">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H82">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J82">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="L82">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="P82">
         <v>27</v>
       </c>
       <c r="Q82">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="4"/>
+        <v>21.5</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="B83">
@@ -10120,33 +10786,41 @@
         <v>144</v>
       </c>
       <c r="G83">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J83">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M83">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="P83">
+        <v>19</v>
+      </c>
+      <c r="Q83">
         <v>27</v>
       </c>
-      <c r="Q83">
-        <v>16</v>
+      <c r="R83">
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="B84">
@@ -10162,33 +10836,41 @@
         <v>122</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I84">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L84">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M84">
         <v>8</v>
       </c>
+      <c r="N84">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
       <c r="P84">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q84">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="B85">
@@ -10204,33 +10886,41 @@
         <v>58</v>
       </c>
       <c r="G85">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H85">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J85">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="L85">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M85">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
       </c>
       <c r="P85">
+        <v>8</v>
+      </c>
+      <c r="Q85">
+        <v>24</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="Q85">
-        <v>8</v>
-      </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="B86">
@@ -10246,159 +10936,191 @@
         <v>30</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I86">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="L86">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M86">
+        <v>8</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>19</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>16</v>
       </c>
-      <c r="P86">
-        <v>8</v>
-      </c>
-      <c r="Q86">
-        <v>24</v>
+      <c r="J87">
+        <v>16</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>16</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>8</v>
-      </c>
-      <c r="E87">
-        <v>19</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>8</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>33</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>8</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>16</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>27</v>
+      </c>
+      <c r="L88">
+        <v>8</v>
+      </c>
+      <c r="M88">
+        <v>19</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="P88">
+        <v>19</v>
+      </c>
+      <c r="Q88">
+        <v>19</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>8</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>8</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>8</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
         <v>16</v>
       </c>
-      <c r="J88">
-        <v>16</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>16</v>
+      <c r="N89">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>8</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>16</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>27</v>
-      </c>
-      <c r="L89">
-        <v>8</v>
-      </c>
-      <c r="M89">
-        <v>19</v>
-      </c>
-      <c r="P89">
-        <v>19</v>
-      </c>
-      <c r="Q89">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B90">
@@ -10414,33 +11136,41 @@
         <v>8</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H90">
         <v>8</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J90">
         <v>8</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B91">
@@ -10456,33 +11186,41 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H91">
         <v>8</v>
       </c>
       <c r="I91">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>8</v>
       </c>
       <c r="M91">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Q91">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B92">
@@ -10498,33 +11236,41 @@
         <v>19</v>
       </c>
       <c r="G92">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L92">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
+      <c r="N92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P92">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
+      <c r="R92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B93">
@@ -10540,33 +11286,41 @@
         <v>33</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I93">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B94">
@@ -10582,33 +11336,41 @@
         <v>41</v>
       </c>
       <c r="G94">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H94">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J94">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L94">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M94">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
       </c>
       <c r="P94">
         <v>8</v>
       </c>
       <c r="Q94">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B95">
@@ -10624,33 +11386,41 @@
         <v>90</v>
       </c>
       <c r="G95">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J95">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="L95">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="P95">
         <v>8</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B96">
@@ -10666,33 +11436,41 @@
         <v>120</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I96">
         <v>19</v>
       </c>
       <c r="J96">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="L96">
         <v>8</v>
       </c>
       <c r="M96">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q96">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B97">
@@ -10714,27 +11492,35 @@
         <v>8</v>
       </c>
       <c r="I97">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J97">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L97">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
+      <c r="N97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P97">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
+      <c r="R97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B98">
@@ -10750,33 +11536,41 @@
         <v>73</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>8</v>
       </c>
       <c r="I98">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
+      <c r="R98">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="B99">
@@ -10792,201 +11586,241 @@
         <v>32</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H99">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J99">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="L99">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>19</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>8</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>24</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>19</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="P100">
+        <v>8</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>16</v>
       </c>
-      <c r="Q99">
-        <v>0</v>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>8</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>8</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>8</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>19</v>
-      </c>
-      <c r="J100">
-        <v>46</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>27</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>19</v>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>33</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>24</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>19</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>8</v>
-      </c>
-      <c r="E101">
-        <v>8</v>
-      </c>
-      <c r="G101">
-        <v>8</v>
-      </c>
-      <c r="H101">
-        <v>8</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>24</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>19</v>
-      </c>
-      <c r="P101">
-        <v>8</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>16</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>88</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="P103">
+        <v>59</v>
+      </c>
+      <c r="Q103">
+        <v>64</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="4"/>
+        <v>61.5</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>8</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>8</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>16</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="P102">
-        <v>8</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>8</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>33</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>24</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="B104">
@@ -11002,33 +11836,41 @@
         <v>16</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
       <c r="M104">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="P104">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="Q104">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="B105">
@@ -11044,33 +11886,41 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H105">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="P105">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="Q105">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="4"/>
+        <v>69.5</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="B106">
@@ -11086,33 +11936,41 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J106">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>98</v>
+        <v>38</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="P106">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="Q106">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="4"/>
+        <v>21.5</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="B107">
@@ -11128,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -11137,24 +11995,32 @@
         <v>8</v>
       </c>
       <c r="J107">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M107">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="P107">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q107">
         <v>24</v>
       </c>
+      <c r="R107">
+        <f t="shared" si="4"/>
+        <v>24.5</v>
+      </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="B108">
@@ -11170,33 +12036,41 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="L108">
         <v>8</v>
       </c>
       <c r="M108">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="P108">
+        <v>19</v>
+      </c>
+      <c r="Q108">
         <v>25</v>
       </c>
-      <c r="Q108">
-        <v>24</v>
+      <c r="R108">
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="B109">
@@ -11212,16 +12086,16 @@
         <v>46</v>
       </c>
       <c r="G109">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J109">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L109">
         <v>8</v>
@@ -11229,16 +12103,24 @@
       <c r="M109">
         <v>8</v>
       </c>
+      <c r="N109">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
       <c r="P109">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="B110">
@@ -11254,33 +12136,41 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L110">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="B111">
@@ -11296,33 +12186,41 @@
         <v>27</v>
       </c>
       <c r="G111">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J111">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
       <c r="M111">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P111">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q111">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="B112">
@@ -11338,16 +12236,16 @@
         <v>24</v>
       </c>
       <c r="G112">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J112">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -11355,16 +12253,24 @@
       <c r="M112">
         <v>0</v>
       </c>
+      <c r="N112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P112">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q112">
         <v>0</v>
       </c>
+      <c r="R112">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="B113">
@@ -11380,33 +12286,41 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I113">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J113">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
+      <c r="N113">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
       <c r="P113">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="B114">
@@ -11422,33 +12336,41 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="L114">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="P114">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q114">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="B115">
@@ -11464,33 +12386,41 @@
         <v>19</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J115">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L115">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>8</v>
       </c>
+      <c r="N115">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="P115">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
+      <c r="R115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="B116">
@@ -11509,30 +12439,38 @@
         <v>8</v>
       </c>
       <c r="H116">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>19</v>
       </c>
       <c r="J116">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
+      <c r="R116">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="B117">
@@ -11548,33 +12486,41 @@
         <v>24</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I117">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M117">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="P117">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="B118">
@@ -11590,33 +12536,41 @@
         <v>19</v>
       </c>
       <c r="G118">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>8</v>
       </c>
       <c r="J118">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q118">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="B119">
@@ -11632,33 +12586,41 @@
         <v>30</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I119">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
       </c>
       <c r="P119">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="B120">
@@ -11674,33 +12636,41 @@
         <v>16</v>
       </c>
       <c r="G120">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>8</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L120">
         <v>8</v>
       </c>
       <c r="M120">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q120">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="B121">
@@ -11716,10 +12686,10 @@
         <v>50</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H121">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>19</v>
@@ -11733,16 +12703,24 @@
       <c r="M121">
         <v>0</v>
       </c>
+      <c r="N121">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="P121">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q121">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="B122">
@@ -11758,22 +12736,26 @@
         <v>109</v>
       </c>
       <c r="G122">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="L122">
         <v>8</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="P122">
         <v>8</v>
@@ -11781,10 +12763,14 @@
       <c r="Q122">
         <v>0</v>
       </c>
+      <c r="R122">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="B123">
@@ -11806,27 +12792,35 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J123">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="L123">
         <v>8</v>
       </c>
       <c r="M123">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q123">
         <v>0</v>
       </c>
+      <c r="R123">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="B124">
@@ -11851,24 +12845,32 @@
         <v>27</v>
       </c>
       <c r="J124">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="L124">
         <v>8</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="P124">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="B125">
@@ -11887,30 +12889,38 @@
         <v>8</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I125">
+        <v>8</v>
+      </c>
+      <c r="J125">
+        <v>61</v>
+      </c>
+      <c r="L125">
+        <v>8</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P125">
         <v>27</v>
       </c>
-      <c r="J125">
-        <v>105</v>
-      </c>
-      <c r="L125">
-        <v>8</v>
-      </c>
-      <c r="M125">
-        <v>24</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
       <c r="Q125">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="B126">
@@ -11926,33 +12936,41 @@
         <v>27</v>
       </c>
       <c r="G126">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H126">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J126">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="L126">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="P126">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q126">
         <v>0</v>
       </c>
+      <c r="R126">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="B127">
@@ -11971,72 +12989,88 @@
         <v>16</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I127">
+        <v>8</v>
+      </c>
+      <c r="J127">
+        <v>27</v>
+      </c>
+      <c r="L127">
+        <v>8</v>
+      </c>
+      <c r="M127">
+        <v>8</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P127">
+        <v>25</v>
+      </c>
+      <c r="Q127">
+        <v>25</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="D128">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>19</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>16</v>
       </c>
-      <c r="J127">
-        <v>38</v>
-      </c>
-      <c r="L127">
-        <v>19</v>
-      </c>
-      <c r="M127">
-        <v>8</v>
-      </c>
-      <c r="P127">
-        <v>16</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>8</v>
+      </c>
+      <c r="M128">
+        <v>19</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="P128">
+        <v>43</v>
+      </c>
+      <c r="Q128">
+        <v>53</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>8</v>
-      </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-      <c r="D128">
-        <v>19</v>
-      </c>
-      <c r="E128">
-        <v>19</v>
-      </c>
-      <c r="G128">
-        <v>16</v>
-      </c>
-      <c r="H128">
-        <v>8</v>
-      </c>
-      <c r="I128">
-        <v>8</v>
-      </c>
-      <c r="J128">
-        <v>27</v>
-      </c>
-      <c r="L128">
-        <v>8</v>
-      </c>
-      <c r="M128">
-        <v>8</v>
-      </c>
-      <c r="P128">
-        <v>25</v>
-      </c>
-      <c r="Q128">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="B129">
@@ -12055,55 +13089,43 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L129">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M129">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="P129">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="Q129">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>8</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>8</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>27</v>
-      </c>
-      <c r="P130">
-        <v>66</v>
-      </c>
-      <c r="Q130">
-        <v>66</v>
+      <c r="N130">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
